--- a/documents/Nine Energies Data.xlsx
+++ b/documents/Nine Energies Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ninestar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908F90CC-4770-4E05-BDB0-613372DEE533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62245C0B-0B44-46A9-944E-CD83568A8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="820" activeTab="5" xr2:uid="{C764FB26-87D9-48FF-8DB5-E6201D5B86FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="820" xr2:uid="{C764FB26-87D9-48FF-8DB5-E6201D5B86FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Essence" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>One-water people must learn to take care of their bladder-kidney energy, along with associated tissues, structures and functions, like the skeletal structure and the reproductive system (see profile). Such people are more prone to problems with sexual organs. Women may have gynaecological difficulties, irregular menses, etc., while men may have prostate problems, and possibly impotence at times.
-These are people who need to take care not to get too cold. Adequate warmth around the stomach, middle and lower back and ears is recommended. Such people need to keep good-quality water and salt as basics in their food preparation. Salt-covered snacks and the salting of foods at the table are not recommended. Nor should food be too hot or too cold. Macrobiotic food preparation and observances should be investigated.
-Because of their sensitivity, one-water people are prone to nervous irritation, which usually expresses itself as fear, even paranoia when under extreme duress. A stressed one-water may express a timidity that makes them immobile or rigid, like ice. This can, in turn, have negative effects on all the physiological aspects mentioned earlier. Progressive relaxation can be useful to this person, as is soothing asynchronous music which allows the mind to settle. A one-water would also benefit from right and left brain exercises. Such practices and observances are useful to the one-water over their lifetime as unbridled tension and stress may lead them to become senile in later years.
-Exercise should be aimed at keeping the skeletal system flexible, especially the spine. Yoga would be an excellent choice as would swimming, preferably in salt water or pools that use ozone or oyster shell for purification rather than chlorine.</t>
-  </si>
-  <si>
     <t>Kidney ailments, earache, venereal disease, melancholia, abnormal menses, haemorrhoids, neurasthenia, paranoia</t>
   </si>
   <si>
@@ -155,22 +149,6 @@
   </si>
   <si>
     <t>2 Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Relationships
-Because they are cautious and thoughtful about matters that are important to them, one-water people are excellent in roles that require clear, succinct communication within an organization. They can often paraphrase a vast array of verbiage into a form that just makes the point. However, they can go too far in this respect, cutting back excessively and then expecting people to understand complex concepts with just a few words. In such instances, the enigmatic or cryptic response the one-water person gives may seem very powerful, but what exactly is meant is not clear to anyone but themselves. It is therefore important for them to be receptive enough to be able to elaborate when necessary, and to do so in a way which does not convey disdain.
-The one-water person is not a team player in the sense that a two-earth is. They are loners, but generally rely on having some context in which they can operate independently. Consequently, they are excellent at setting limits and establishing boundaries within an organizational structure.
-As water nourishes most of what exists on this planet, so it is that one-water people nourish the organizations of which they are part. They energize situations and help keep staff moving. Thus they may be useful in management positions or in some capacity that involves establishing the direction of a plan. They are excellent in developing mission statements and mapping out the interconnections of all the various sub-components of a situation. This does not mean, however, that the one-water person should be viewed as an administrator, for detail can be quite tedious for such people. They are not good at looking for new ideas, but rather for new connections in what is already in place.
-Nor are one-waters suited to positions where they are actively involved in the completion of tasks as a primary responsibility. Their forte is reflecting upon what has gone before and bringing their deep insights to bear on the present so that plans for the future may be steered in more meaningful directions. It must be borne in mind, however, that for them meaningfulness will not be determined by other people or by an organization, but by their own experiences. If one-waters find what they are involved with meaningless, they are likely to drop their involvement or just leave. What a one-water needs to guard against is over-reacting in these situations. There are times when they worry too much about things and take tasks or situations to unnecessary depths.
-One-water people also do not handle positions which involve heavy physical labour very well, either because they are too thin or sensitive, or because they find such work unacceptable. Of course they will do the work if necessary, but they will somehow convey to those around them that it is not to their liking.
-They are often successful in founding an enterprise or business.
- Skills:
-Yin: The Allocator – containing, setting limits, storing, allocating resources, delineating boundaries, managing resources
-Yang: The Motivator – generating, regulating, motivating, energizing, providing direction, reflecting, risk-analysis
-Positive:
-	Often success as entrepreneur, can be bold, dares to take risks, ventures into the thick of things, can venture without holding back, industrious, persistent, serious, slaves away but with results, ploughs trough the mud, loyal.
-Negative:
-Lacking in ambition, indolent, line of least resistance.  </t>
   </si>
   <si>
     <t>Skin disorders, blood disorders, goitre, tongue and throat symptoms, digestive tract ailments, congestion, blood sugar imbalances, depression, sense of being overwhelmed</t>
@@ -1279,6 +1257,42 @@
 A lesson one-waters should learn in their love relationships is detachment. Once involved, especially sexually, one-water people can be extremely possessive. As a result, they may not only lose their own sense of self-identity, but also sacrifice or neglect other important relationships in their lives. They also have a tendency to be excessively lavish with money and gifts and thus can heedlessly squander whatever savings they have accumulated. Such behaviour often comes about when the one-water fears being abandoned.
 One-waters must come to terms with the fact that their need for solitude is best satisfied when they recognize how companionship can create the support necessary for that need to be met. Being more verbal in communicating their appreciation and love for their partner will not only create a greater sense of closeness, but will also possibly alleviate their tendency to cling. If such issues are not addressed, one-waters and their partners may be locked in a relationship for years; the one-waters feeling isolated and misunderstood, their partners feeling trapped.
  People born under this sign are usually very interested in the opposite sex and may have many love affairs. However, they are discreet and keep their personal lives confidential.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;p&gt;
+    Water Energies are most likely to suffer health problems related to the kidneys, bladder, reproductive system and adrenal glands, all of which are governed by the element water in Traditional Chinese Medicine.
+&lt;/p&gt;
+&lt;p&gt;
+    It is important for people of this sign to keep warm and take plenty of rest. Alcohol, caffeine, sugar, late nights and stress are particularly depleting for Water Energies.
+&lt;/p&gt;
+&lt;p&gt;
+    It is also especially important to avoid cold, damp living environments.
+&lt;/p&gt;
+One-water people must learn to take care of their bladder-kidney energy, along with associated tissues, structures and functions, like the skeletal structure and the reproductive system (see profile). Such people are more prone to problems with sexual organs. Women may have gynaecological difficulties, irregular menses, etc., while men may have prostate problems, and possibly impotence at times.
+These are people who need to take care not to get too cold. Adequate warmth around the stomach, middle and lower back and ears is recommended. Such people need to keep good-quality water and salt as basics in their food preparation. Salt-covered snacks and the salting of foods at the table are not recommended. Nor should food be too hot or too cold. Macrobiotic food preparation and observances should be investigated.
+Because of their sensitivity, one-water people are prone to nervous irritation, which usually expresses itself as fear, even paranoia when under extreme duress. A stressed one-water may express a timidity that makes them immobile or rigid, like ice. This can, in turn, have negative effects on all the physiological aspects mentioned earlier. Progressive relaxation can be useful to this person, as is soothing asynchronous music which allows the mind to settle. A one-water would also benefit from right and left brain exercises. Such practices and observances are useful to the one-water over their lifetime as unbridled tension and stress may lead them to become senile in later years.
+Exercise should be aimed at keeping the skeletal system flexible, especially the spine. Yoga would be an excellent choice as would swimming, preferably in salt water or pools that use ozone or oyster shell for purification rather than chlorine.</t>
+  </si>
+  <si>
+    <t>Business Relationships
+Because they are cautious and thoughtful about matters that are important to them, one-water people are excellent in roles that require clear, succinct communication within an organization. They can often paraphrase a vast array of verbiage into a form that just makes the point. However, they can go too far in this respect, cutting back excessively and then expecting people to understand complex concepts with just a few words. In such instances, the enigmatic or cryptic response the one-water person gives may seem very powerful, but what exactly is meant is not clear to anyone but themselves. It is therefore important for them to be receptive enough to be able to elaborate when necessary, and to do so in a way which does not convey disdain.
+The one-water person is not a team player in the sense that a two-earth is. They are loners, but generally rely on having some context in which they can operate independently. Consequently, they are excellent at setting limits and establishing boundaries within an organizational structure.
+As water nourishes most of what exists on this planet, so it is that one-water people nourish the organizations of which they are part. They energize situations and help keep staff moving. Thus they may be useful in management positions or in some capacity that involves establishing the direction of a plan. They are excellent in developing mission statements and mapping out the interconnections of all the various sub-components of a situation. This does not mean, however, that the one-water person should be viewed as an administrator, for detail can be quite tedious for such people. They are not good at looking for new ideas, but rather for new connections in what is already in place.
+Nor are one-waters suited to positions where they are actively involved in the completion of tasks as a primary responsibility. Their forte is reflecting upon what has gone before and bringing their deep insights to bear on the present so that plans for the future may be steered in more meaningful directions. It must be borne in mind, however, that for them meaningfulness will not be determined by other people or by an organization, but by their own experiences. If one-waters find what they are involved with meaningless, they are likely to drop their involvement or just leave. What a one-water needs to guard against is over-reacting in these situations. There are times when they worry too much about things and take tasks or situations to unnecessary depths.
+One-water people also do not handle positions which involve heavy physical labour very well, either because they are too thin or sensitive, or because they find such work unacceptable. Of course they will do the work if necessary, but they will somehow convey to those around them that it is not to their liking.
+They are often successful in founding an enterprise or business.
+ Skills:
+Yin: The Allocator – containing, setting limits, storing, allocating resources, delineating boundaries, managing resources
+Yang: The Motivator – generating, regulating, motivating, energizing, providing direction, reflecting, risk-analysis
+Positive:
+	Often success as entrepreneur, can be bold, dares to take risks, ventures into the thick of things, can venture without holding back, industrious, persistent, serious, slaves away but with results, ploughs trough the mud, loyal.
+Negative:
+Lacking in ambition, indolent, line of least resistance.  
+&lt;p&gt;
+    Water Energies are sensitive and deep thinkers, and as such, many of them are drawn to poetry, writing, composition, philosophy and some become therapists and healers.
+    On the other hand, their natural ability to find a well thought-out and balanced argument means they can make excellent lawyers.
+&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1669,6 +1683,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF0026B-4DBE-4182-8D9C-D6920D0B3787}">
   <dimension ref="A1:B10"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="240.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F299FD61-E34F-4AFE-A700-B8D3161CD913}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -1688,76 +1802,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1765,12 +1879,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F299FD61-E34F-4AFE-A700-B8D3161CD913}">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C74E4-1672-44B8-8E42-F1C10B02B1D5}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1796,68 +1910,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1865,12 +1966,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8C74E4-1672-44B8-8E42-F1C10B02B1D5}">
-  <dimension ref="A1:B9"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA7263F-EC66-4834-8B35-E6B508BAB266}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,155 +1989,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA7263F-EC66-4834-8B35-E6B508BAB266}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="240.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2072,71 +2086,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2172,71 +2186,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2272,71 +2286,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2372,71 +2386,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3539E9-1538-4D4B-A9CA-3A873AA79B04}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2472,71 +2486,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2548,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B95694-0D63-4FE4-8DED-700DF5DB48A3}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,76 +2581,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2663,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,71 +2686,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2748,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAE1283-57F2-4ED3-9BF3-6F5DBE9AC8FE}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,71 +2786,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Nine Energies Data.xlsx
+++ b/documents/Nine Energies Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ninestar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62245C0B-0B44-46A9-944E-CD83568A8D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83CE19C-B289-4C5C-8B22-D18067CF508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="820" xr2:uid="{C764FB26-87D9-48FF-8DB5-E6201D5B86FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="820" activeTab="4" xr2:uid="{C764FB26-87D9-48FF-8DB5-E6201D5B86FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Essence" sheetId="1" r:id="rId1"/>
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF0026B-4DBE-4182-8D9C-D6920D0B3787}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DE8D89-C711-4050-8155-B9B4B561B12E}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B77C15-0CBC-469A-BA88-44198562070A}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6930559A-F1C2-411E-AEE1-5DB8B379DF57}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8973F06A-CE27-4A23-B8C9-26C5BF98B0D3}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
